--- a/Data_processing/RECC_Materials_Workbook_v3.xlsx
+++ b/Data_processing/RECC_Materials_Workbook_v3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99691C03-46D6-4F00-BD8E-DFC5AAFDFE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8840EB33-5B14-40D9-ADA1-AD4BD9B8F390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3420" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{3B886446-96DB-468F-B1BD-2BAEAB5B5BA8}"/>
+    <workbookView xWindow="-28920" yWindow="-3420" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{3B886446-96DB-468F-B1BD-2BAEAB5B5BA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="776">
   <si>
     <t>RECC database</t>
   </si>
@@ -2508,9 +2508,6 @@
     <t>heavy fuel oil</t>
   </si>
   <si>
-    <t>to be filled</t>
-  </si>
-  <si>
     <t>GWP1000</t>
   </si>
   <si>
@@ -2521,6 +2518,15 @@
   </si>
   <si>
     <t>[empty on purpose]</t>
+  </si>
+  <si>
+    <t>H2 steel</t>
+  </si>
+  <si>
+    <t>production of construction grade steel, H2</t>
+  </si>
+  <si>
+    <t>production of automotive steel, H2</t>
   </si>
 </sst>
 </file>
@@ -2877,7 +2883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -3126,6 +3132,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3135,7 +3167,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3593,6 +3625,22 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -30997,8 +31045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="E9:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
@@ -35032,10 +35080,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756F7032-4D7F-4981-9AB8-C6F558AB646A}">
-  <dimension ref="B1:BL42"/>
+  <dimension ref="B1:BM46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="AA43" sqref="AA43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -35057,10 +35105,10 @@
     </row>
     <row r="3" spans="2:6">
       <c r="D3" s="218" t="s">
+        <v>769</v>
+      </c>
+      <c r="E3" s="218" t="s">
         <v>770</v>
-      </c>
-      <c r="E3" s="218" t="s">
-        <v>771</v>
       </c>
       <c r="F3" s="218" t="s">
         <v>749</v>
@@ -35342,7 +35390,7 @@
         <v>2.2655000000000002E-3</v>
       </c>
       <c r="G23" s="225" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="2:64">
@@ -35362,7 +35410,7 @@
         <v>1.5552000000000001E-3</v>
       </c>
       <c r="G24" s="225" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="25" spans="2:64">
@@ -35396,7 +35444,7 @@
         <v>1.1795E-3</v>
       </c>
       <c r="G26" s="225" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="28" spans="2:64" ht="15" thickBot="1"/>
@@ -35410,21 +35458,21 @@
       </c>
       <c r="F29" s="219"/>
       <c r="G29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H29" s="220" t="s">
         <v>753</v>
       </c>
       <c r="I29" s="219"/>
       <c r="J29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="K29" s="219" t="s">
         <v>754</v>
       </c>
       <c r="L29" s="219"/>
       <c r="M29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N29" s="219" t="s">
         <v>755</v>
@@ -35432,7 +35480,7 @@
       <c r="O29" s="219"/>
       <c r="P29" s="219"/>
       <c r="Q29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R29" s="219" t="s">
         <v>756</v>
@@ -35440,7 +35488,7 @@
       <c r="S29" s="219"/>
       <c r="T29" s="219"/>
       <c r="U29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V29" s="219" t="s">
         <v>757</v>
@@ -35448,7 +35496,7 @@
       <c r="W29" s="219"/>
       <c r="X29" s="219"/>
       <c r="Y29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Z29" s="219" t="s">
         <v>758</v>
@@ -35456,7 +35504,7 @@
       <c r="AA29" s="219"/>
       <c r="AB29" s="219"/>
       <c r="AC29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AD29" s="219" t="s">
         <v>759</v>
@@ -35466,7 +35514,7 @@
       <c r="AG29" s="219"/>
       <c r="AH29" s="219"/>
       <c r="AI29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AJ29" s="219" t="s">
         <v>760</v>
@@ -35476,7 +35524,7 @@
       <c r="AM29" s="219"/>
       <c r="AN29" s="219"/>
       <c r="AO29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AP29" s="219" t="s">
         <v>761</v>
@@ -35490,7 +35538,7 @@
       <c r="AV29" s="219"/>
       <c r="AW29" s="219"/>
       <c r="AX29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AY29" s="219" t="s">
         <v>763</v>
@@ -35498,7 +35546,7 @@
       <c r="AZ29" s="219"/>
       <c r="BA29" s="219"/>
       <c r="BB29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="BC29" s="219" t="s">
         <v>764</v>
@@ -35506,7 +35554,7 @@
       <c r="BD29" s="219"/>
       <c r="BE29" s="219"/>
       <c r="BF29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="BG29" s="219" t="s">
         <v>765</v>
@@ -35514,7 +35562,7 @@
       <c r="BH29" s="219"/>
       <c r="BI29" s="219"/>
       <c r="BJ29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="BK29" s="219" t="s">
         <v>766</v>
@@ -35558,28 +35606,24 @@
         <f>Steel!J88</f>
         <v>coal, hard coal</v>
       </c>
-      <c r="R30" s="221" t="str">
-        <f>N30</f>
+      <c r="R30" s="221" t="str" cm="1">
+        <f t="array" ref="R30:T36">Steel!H88:J94</f>
         <v>electricity</v>
       </c>
       <c r="S30" s="223" t="str">
-        <f t="shared" ref="S30:T30" si="4">O30</f>
         <v>natural gas</v>
       </c>
       <c r="T30" s="222" t="str">
-        <f t="shared" si="4"/>
         <v>coal, hard coal</v>
       </c>
-      <c r="V30" s="221" t="str">
-        <f>R30</f>
+      <c r="V30" s="221" t="str" cm="1">
+        <f t="array" ref="V30:X36">Steel!H88:J94</f>
         <v>electricity</v>
       </c>
       <c r="W30" s="223" t="str">
-        <f t="shared" ref="W30:X30" si="5">S30</f>
         <v>natural gas</v>
       </c>
       <c r="X30" s="222" t="str">
-        <f t="shared" si="5"/>
         <v>coal, hard coal</v>
       </c>
       <c r="Z30" s="221" t="str">
@@ -35619,19 +35663,19 @@
         <v>electricity</v>
       </c>
       <c r="AK30" s="223" t="str">
-        <f t="shared" ref="AK30:AN30" si="6">AE30</f>
+        <f t="shared" ref="AK30:AN30" si="4">AE30</f>
         <v>coal, hard coal</v>
       </c>
       <c r="AL30" s="223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>natural gas</v>
       </c>
       <c r="AM30" s="223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>diesel</v>
       </c>
       <c r="AN30" s="222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>heavy fuel oil</v>
       </c>
       <c r="AP30" s="221" t="str">
@@ -35745,27 +35789,21 @@
         <v>MJ/kg</v>
       </c>
       <c r="R31" s="213" t="str">
-        <f t="shared" ref="R31:R36" si="7">N31</f>
         <v>MJ/kg</v>
       </c>
       <c r="S31" s="174" t="str">
-        <f t="shared" ref="S31:S36" si="8">O31</f>
         <v>MJ/kg</v>
       </c>
       <c r="T31" s="214" t="str">
-        <f t="shared" ref="T31:T36" si="9">P31</f>
         <v>MJ/kg</v>
       </c>
       <c r="V31" s="213" t="str">
-        <f t="shared" ref="V31:V36" si="10">R31</f>
         <v>MJ/kg</v>
       </c>
       <c r="W31" s="174" t="str">
-        <f t="shared" ref="W31:W36" si="11">S31</f>
         <v>MJ/kg</v>
       </c>
       <c r="X31" s="214" t="str">
-        <f t="shared" ref="X31:X36" si="12">T31</f>
         <v>MJ/kg</v>
       </c>
       <c r="Z31" s="213" t="str">
@@ -35801,23 +35839,23 @@
         <v>MJ/kg</v>
       </c>
       <c r="AJ31" s="213" t="str">
-        <f t="shared" ref="AJ31:AJ36" si="13">AD31</f>
+        <f t="shared" ref="AJ31:AJ36" si="5">AD31</f>
         <v>MJ/kg</v>
       </c>
       <c r="AK31" s="174" t="str">
-        <f t="shared" ref="AK31:AK36" si="14">AE31</f>
+        <f t="shared" ref="AK31:AK36" si="6">AE31</f>
         <v>MJ/kg Al</v>
       </c>
       <c r="AL31" s="174" t="str">
-        <f t="shared" ref="AL31:AL36" si="15">AF31</f>
+        <f t="shared" ref="AL31:AL36" si="7">AF31</f>
         <v>MJ/kg</v>
       </c>
       <c r="AM31" s="174" t="str">
-        <f t="shared" ref="AM31:AM36" si="16">AG31</f>
+        <f t="shared" ref="AM31:AM36" si="8">AG31</f>
         <v>MJ/kg</v>
       </c>
       <c r="AN31" s="214" t="str">
-        <f t="shared" ref="AN31:AN36" si="17">AH31</f>
+        <f t="shared" ref="AN31:AN36" si="9">AH31</f>
         <v>MJ/kg</v>
       </c>
       <c r="AP31" s="213" t="str">
@@ -35937,27 +35975,21 @@
         <v>16.849185368000001</v>
       </c>
       <c r="R32" s="213">
-        <f t="shared" si="7"/>
         <v>0.33755760000000001</v>
       </c>
       <c r="S32" s="174">
-        <f t="shared" si="8"/>
         <v>2.6592000000000001E-2</v>
       </c>
       <c r="T32" s="214">
-        <f t="shared" si="9"/>
         <v>16.849185368000001</v>
       </c>
       <c r="V32" s="213">
-        <f t="shared" si="10"/>
         <v>0.33755760000000001</v>
       </c>
       <c r="W32" s="174">
-        <f t="shared" si="11"/>
         <v>2.6592000000000001E-2</v>
       </c>
       <c r="X32" s="214">
-        <f t="shared" si="12"/>
         <v>16.849185368000001</v>
       </c>
       <c r="Z32" s="213">
@@ -35993,23 +36025,23 @@
         <v>2.661389774978812</v>
       </c>
       <c r="AJ32" s="213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>53.08798520574571</v>
       </c>
       <c r="AK32" s="174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>19.073443062591178</v>
       </c>
       <c r="AL32" s="174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>5.8621200820087758</v>
       </c>
       <c r="AM32" s="174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0.54593913222791868</v>
       </c>
       <c r="AN32" s="214">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>2.661389774978812</v>
       </c>
       <c r="AP32" s="213">
@@ -36085,7 +36117,7 @@
         <v>14.436</v>
       </c>
     </row>
-    <row r="33" spans="2:64">
+    <row r="33" spans="2:65">
       <c r="B33" s="226"/>
       <c r="C33" s="224">
         <v>2020</v>
@@ -36127,27 +36159,21 @@
         <v>16.849185368000001</v>
       </c>
       <c r="R33" s="213">
-        <f t="shared" si="7"/>
         <v>0.33755760000000001</v>
       </c>
       <c r="S33" s="174">
-        <f t="shared" si="8"/>
         <v>2.6592000000000001E-2</v>
       </c>
       <c r="T33" s="214">
-        <f t="shared" si="9"/>
         <v>16.849185368000001</v>
       </c>
       <c r="V33" s="213">
-        <f t="shared" si="10"/>
         <v>0.33755760000000001</v>
       </c>
       <c r="W33" s="174">
-        <f t="shared" si="11"/>
         <v>2.6592000000000001E-2</v>
       </c>
       <c r="X33" s="214">
-        <f t="shared" si="12"/>
         <v>16.849185368000001</v>
       </c>
       <c r="Z33" s="213">
@@ -36183,23 +36209,23 @@
         <v>2.661389774978812</v>
       </c>
       <c r="AJ33" s="213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="AK33" s="174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>19.073443062591178</v>
       </c>
       <c r="AL33" s="174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>5.8621200820087758</v>
       </c>
       <c r="AM33" s="174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0.54593913222791868</v>
       </c>
       <c r="AN33" s="214">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>2.661389774978812</v>
       </c>
       <c r="AP33" s="213">
@@ -36275,7 +36301,7 @@
         <v>14.436</v>
       </c>
     </row>
-    <row r="34" spans="2:64">
+    <row r="34" spans="2:65">
       <c r="B34" s="226"/>
       <c r="C34" s="224">
         <v>2030</v>
@@ -36317,27 +36343,21 @@
         <v>16.849185368000001</v>
       </c>
       <c r="R34" s="213">
-        <f t="shared" si="7"/>
         <v>0.33755760000000001</v>
       </c>
       <c r="S34" s="174">
-        <f t="shared" si="8"/>
         <v>2.6592000000000001E-2</v>
       </c>
       <c r="T34" s="214">
-        <f t="shared" si="9"/>
         <v>16.849185368000001</v>
       </c>
       <c r="V34" s="213">
-        <f t="shared" si="10"/>
         <v>0.33755760000000001</v>
       </c>
       <c r="W34" s="174">
-        <f t="shared" si="11"/>
         <v>2.6592000000000001E-2</v>
       </c>
       <c r="X34" s="214">
-        <f t="shared" si="12"/>
         <v>16.849185368000001</v>
       </c>
       <c r="Z34" s="213">
@@ -36373,23 +36393,23 @@
         <v>2.661389774978812</v>
       </c>
       <c r="AJ34" s="213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="AK34" s="174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>19.073443062591178</v>
       </c>
       <c r="AL34" s="174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>5.8621200820087758</v>
       </c>
       <c r="AM34" s="174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0.54593913222791868</v>
       </c>
       <c r="AN34" s="214">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>2.661389774978812</v>
       </c>
       <c r="AP34" s="213">
@@ -36465,7 +36485,7 @@
         <v>14.436</v>
       </c>
     </row>
-    <row r="35" spans="2:64">
+    <row r="35" spans="2:65">
       <c r="B35" s="226"/>
       <c r="C35" s="224">
         <v>2040</v>
@@ -36507,27 +36527,21 @@
         <v>16.849185368000001</v>
       </c>
       <c r="R35" s="213">
-        <f t="shared" si="7"/>
         <v>0.33755760000000001</v>
       </c>
       <c r="S35" s="174">
-        <f t="shared" si="8"/>
         <v>2.6592000000000001E-2</v>
       </c>
       <c r="T35" s="214">
-        <f t="shared" si="9"/>
         <v>16.849185368000001</v>
       </c>
       <c r="V35" s="213">
-        <f t="shared" si="10"/>
         <v>0.33755760000000001</v>
       </c>
       <c r="W35" s="174">
-        <f t="shared" si="11"/>
         <v>2.6592000000000001E-2</v>
       </c>
       <c r="X35" s="214">
-        <f t="shared" si="12"/>
         <v>16.849185368000001</v>
       </c>
       <c r="Z35" s="213">
@@ -36563,23 +36577,23 @@
         <v>2.661389774978812</v>
       </c>
       <c r="AJ35" s="213">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="AK35" s="174">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>19.073443062591178</v>
       </c>
       <c r="AL35" s="174">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>5.8621200820087758</v>
       </c>
       <c r="AM35" s="174">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0.54593913222791868</v>
       </c>
       <c r="AN35" s="214">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>2.661389774978812</v>
       </c>
       <c r="AP35" s="213">
@@ -36655,7 +36669,7 @@
         <v>14.436</v>
       </c>
     </row>
-    <row r="36" spans="2:64" ht="15" thickBot="1">
+    <row r="36" spans="2:65" ht="15" thickBot="1">
       <c r="B36" s="226"/>
       <c r="C36" s="224">
         <v>2050</v>
@@ -36697,27 +36711,21 @@
         <v>16.849185368000001</v>
       </c>
       <c r="R36" s="215">
-        <f t="shared" si="7"/>
         <v>0.33755760000000001</v>
       </c>
       <c r="S36" s="217">
-        <f t="shared" si="8"/>
         <v>2.6592000000000001E-2</v>
       </c>
       <c r="T36" s="216">
-        <f t="shared" si="9"/>
         <v>16.849185368000001</v>
       </c>
       <c r="V36" s="215">
-        <f t="shared" si="10"/>
         <v>0.33755760000000001</v>
       </c>
       <c r="W36" s="217">
-        <f t="shared" si="11"/>
         <v>2.6592000000000001E-2</v>
       </c>
       <c r="X36" s="216">
-        <f t="shared" si="12"/>
         <v>16.849185368000001</v>
       </c>
       <c r="Z36" s="215">
@@ -36753,23 +36761,23 @@
         <v>2.661389774978812</v>
       </c>
       <c r="AJ36" s="215">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="AK36" s="217">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>19.073443062591178</v>
       </c>
       <c r="AL36" s="217">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>5.8621200820087758</v>
       </c>
       <c r="AM36" s="217">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0.54593913222791868</v>
       </c>
       <c r="AN36" s="216">
-        <f t="shared" si="17"/>
+        <f t="shared" si="9"/>
         <v>2.661389774978812</v>
       </c>
       <c r="AP36" s="215">
@@ -36845,45 +36853,675 @@
         <v>14.436</v>
       </c>
     </row>
-    <row r="38" spans="2:64">
-      <c r="B38" s="226" t="s">
+    <row r="38" spans="2:65">
+      <c r="E38" s="198"/>
+      <c r="F38" s="198"/>
+      <c r="G38" s="198"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="198"/>
+      <c r="J38" s="198"/>
+      <c r="K38" s="198"/>
+      <c r="L38" s="198"/>
+      <c r="M38" s="198"/>
+      <c r="N38" s="198"/>
+      <c r="O38" s="198"/>
+      <c r="P38" s="198"/>
+      <c r="Q38" s="198"/>
+      <c r="R38" s="198"/>
+      <c r="S38" s="198"/>
+      <c r="T38" s="198"/>
+      <c r="U38" s="198"/>
+      <c r="V38" s="198"/>
+      <c r="W38" s="198"/>
+      <c r="X38" s="198"/>
+      <c r="Y38" s="198"/>
+      <c r="Z38" s="198"/>
+      <c r="AA38" s="198"/>
+      <c r="AB38" s="198"/>
+      <c r="AC38" s="198"/>
+      <c r="AD38" s="198"/>
+      <c r="AE38" s="198"/>
+      <c r="AF38" s="198"/>
+      <c r="AG38" s="198"/>
+      <c r="AH38" s="198"/>
+      <c r="AI38" s="198"/>
+      <c r="AJ38" s="198"/>
+      <c r="AK38" s="198"/>
+      <c r="AL38" s="198"/>
+      <c r="AM38" s="198"/>
+      <c r="AN38" s="198"/>
+      <c r="AO38" s="198"/>
+      <c r="AP38" s="198"/>
+      <c r="AQ38" s="198"/>
+      <c r="AR38" s="198"/>
+      <c r="AS38" s="198"/>
+      <c r="AT38" s="198"/>
+      <c r="AU38" s="198"/>
+      <c r="AV38" s="198"/>
+      <c r="AW38" s="198"/>
+      <c r="AX38" s="198"/>
+      <c r="AY38" s="198"/>
+      <c r="AZ38" s="198"/>
+      <c r="BA38" s="198"/>
+      <c r="BB38" s="198"/>
+      <c r="BC38" s="198"/>
+      <c r="BD38" s="198"/>
+      <c r="BE38" s="198"/>
+      <c r="BF38" s="198"/>
+      <c r="BG38" s="198"/>
+      <c r="BH38" s="198"/>
+      <c r="BI38" s="198"/>
+      <c r="BJ38" s="198"/>
+      <c r="BK38" s="198"/>
+      <c r="BL38" s="198"/>
+      <c r="BM38" s="198"/>
+    </row>
+    <row r="39" spans="2:65" ht="15" thickBot="1">
+      <c r="E39" s="233" t="s">
+        <v>774</v>
+      </c>
+      <c r="F39" t="s">
+        <v>772</v>
+      </c>
+      <c r="G39" s="219" t="s">
+        <v>775</v>
+      </c>
+      <c r="H39" s="198"/>
+      <c r="I39" s="219" t="s">
+        <v>775</v>
+      </c>
+      <c r="J39" s="198"/>
+      <c r="K39" s="219" t="s">
+        <v>775</v>
+      </c>
+      <c r="L39" s="198"/>
+      <c r="M39" s="198"/>
+      <c r="N39" s="198"/>
+      <c r="O39" s="198"/>
+      <c r="P39" s="198"/>
+      <c r="Q39" s="198"/>
+      <c r="R39" s="198"/>
+      <c r="S39" s="198"/>
+      <c r="T39" s="198"/>
+      <c r="U39" s="198"/>
+      <c r="V39" s="198"/>
+      <c r="W39" s="198"/>
+      <c r="X39" s="198"/>
+      <c r="Y39" s="198"/>
+      <c r="Z39" s="198"/>
+      <c r="AA39" s="198"/>
+      <c r="AB39" s="198"/>
+      <c r="AC39" s="198"/>
+      <c r="AD39" s="198"/>
+      <c r="AE39" s="198"/>
+      <c r="AF39" s="198"/>
+      <c r="AG39" s="198"/>
+      <c r="AH39" s="198"/>
+      <c r="AI39" s="198"/>
+      <c r="AJ39" s="198"/>
+      <c r="AK39" s="198"/>
+      <c r="AL39" s="198"/>
+      <c r="AM39" s="198"/>
+      <c r="AN39" s="198"/>
+      <c r="AO39" s="198"/>
+      <c r="AP39" s="198"/>
+      <c r="AQ39" s="198"/>
+      <c r="AR39" s="198"/>
+      <c r="AS39" s="198"/>
+      <c r="AT39" s="198"/>
+      <c r="AU39" s="198"/>
+      <c r="AV39" s="198"/>
+      <c r="AW39" s="198"/>
+      <c r="AX39" s="198"/>
+      <c r="AY39" s="198"/>
+      <c r="AZ39" s="198"/>
+      <c r="BA39" s="198"/>
+      <c r="BB39" s="198"/>
+      <c r="BC39" s="198"/>
+      <c r="BD39" s="198"/>
+      <c r="BE39" s="198"/>
+      <c r="BF39" s="198"/>
+      <c r="BG39" s="198"/>
+      <c r="BH39" s="198"/>
+      <c r="BI39" s="198"/>
+      <c r="BJ39" s="198"/>
+      <c r="BK39" s="198"/>
+      <c r="BL39" s="198"/>
+      <c r="BM39" s="198"/>
+    </row>
+    <row r="40" spans="2:65">
+      <c r="E40" s="230" t="str" cm="1">
+        <f t="array" ref="E40:E46">Steel!H107:H113</f>
+        <v>Electricity</v>
+      </c>
+      <c r="F40" s="198"/>
+      <c r="G40" s="234" t="str" cm="1">
+        <f t="array" ref="G40:G46">Steel!H107:H113</f>
+        <v>Electricity</v>
+      </c>
+      <c r="H40" s="198"/>
+      <c r="I40" s="234" t="str">
+        <f>Steel!H107</f>
+        <v>Electricity</v>
+      </c>
+      <c r="J40" s="198"/>
+      <c r="K40" s="234" t="str" cm="1">
+        <f t="array" ref="K40:K46">Steel!H107:H113</f>
+        <v>Electricity</v>
+      </c>
+      <c r="L40" s="198"/>
+      <c r="M40" s="198"/>
+      <c r="N40" s="198"/>
+      <c r="O40" s="198"/>
+      <c r="P40" s="198"/>
+      <c r="Q40" s="198"/>
+      <c r="R40" s="198"/>
+      <c r="S40" s="198"/>
+      <c r="T40" s="198"/>
+      <c r="U40" s="198"/>
+      <c r="V40" s="198"/>
+      <c r="W40" s="198"/>
+      <c r="X40" s="198"/>
+      <c r="Y40" s="198"/>
+      <c r="Z40" s="198"/>
+      <c r="AA40" s="198"/>
+      <c r="AB40" s="198"/>
+      <c r="AC40" s="198"/>
+      <c r="AD40" s="198"/>
+      <c r="AE40" s="198"/>
+      <c r="AF40" s="198"/>
+      <c r="AG40" s="198"/>
+      <c r="AH40" s="198"/>
+      <c r="AI40" s="198"/>
+      <c r="AJ40" s="198"/>
+      <c r="AK40" s="198"/>
+      <c r="AL40" s="198"/>
+      <c r="AM40" s="198"/>
+      <c r="AN40" s="198"/>
+      <c r="AO40" s="198"/>
+      <c r="AP40" s="198"/>
+      <c r="AQ40" s="198"/>
+      <c r="AR40" s="198"/>
+      <c r="AS40" s="198"/>
+      <c r="AT40" s="198"/>
+      <c r="AU40" s="198"/>
+      <c r="AV40" s="198"/>
+      <c r="AW40" s="198"/>
+      <c r="AX40" s="198"/>
+      <c r="AY40" s="198"/>
+      <c r="AZ40" s="198"/>
+      <c r="BA40" s="198"/>
+      <c r="BB40" s="198"/>
+      <c r="BC40" s="198"/>
+      <c r="BD40" s="198"/>
+      <c r="BE40" s="198"/>
+      <c r="BF40" s="198"/>
+      <c r="BG40" s="198"/>
+      <c r="BH40" s="198"/>
+      <c r="BI40" s="198"/>
+      <c r="BJ40" s="198"/>
+      <c r="BK40" s="198"/>
+      <c r="BL40" s="198"/>
+      <c r="BM40" s="198"/>
+    </row>
+    <row r="41" spans="2:65">
+      <c r="E41" s="231" t="str">
+        <v>MJ/kg</v>
+      </c>
+      <c r="F41" s="198"/>
+      <c r="G41" s="231" t="str">
+        <v>MJ/kg</v>
+      </c>
+      <c r="H41" s="198"/>
+      <c r="I41" s="231" t="str">
+        <f>Steel!H108</f>
+        <v>MJ/kg</v>
+      </c>
+      <c r="J41" s="198"/>
+      <c r="K41" s="231" t="str">
+        <v>MJ/kg</v>
+      </c>
+      <c r="L41" s="198"/>
+      <c r="M41" s="198"/>
+      <c r="N41" s="198"/>
+      <c r="O41" s="198"/>
+      <c r="P41" s="198"/>
+      <c r="Q41" s="198"/>
+      <c r="R41" s="198"/>
+      <c r="S41" s="198"/>
+      <c r="T41" s="198"/>
+      <c r="U41" s="198"/>
+      <c r="V41" s="198"/>
+      <c r="W41" s="198"/>
+      <c r="X41" s="198"/>
+      <c r="Y41" s="198"/>
+      <c r="Z41" s="198"/>
+      <c r="AA41" s="198"/>
+      <c r="AB41" s="198"/>
+      <c r="AC41" s="198"/>
+      <c r="AD41" s="198"/>
+      <c r="AE41" s="198"/>
+      <c r="AF41" s="198"/>
+      <c r="AG41" s="198"/>
+      <c r="AH41" s="198"/>
+      <c r="AI41" s="198"/>
+      <c r="AJ41" s="198"/>
+      <c r="AK41" s="198"/>
+      <c r="AL41" s="198"/>
+      <c r="AM41" s="198"/>
+      <c r="AN41" s="198"/>
+      <c r="AO41" s="198"/>
+      <c r="AP41" s="198"/>
+      <c r="AQ41" s="198"/>
+      <c r="AR41" s="198"/>
+      <c r="AS41" s="198"/>
+      <c r="AT41" s="198"/>
+      <c r="AU41" s="198"/>
+      <c r="AV41" s="198"/>
+      <c r="AW41" s="198"/>
+      <c r="AX41" s="198"/>
+      <c r="AY41" s="198"/>
+      <c r="AZ41" s="198"/>
+      <c r="BA41" s="198"/>
+      <c r="BB41" s="198"/>
+      <c r="BC41" s="198"/>
+      <c r="BD41" s="198"/>
+      <c r="BE41" s="198"/>
+      <c r="BF41" s="198"/>
+      <c r="BG41" s="198"/>
+      <c r="BH41" s="198"/>
+      <c r="BI41" s="198"/>
+      <c r="BJ41" s="198"/>
+      <c r="BK41" s="198"/>
+      <c r="BL41" s="198"/>
+      <c r="BM41" s="198"/>
+    </row>
+    <row r="42" spans="2:65">
+      <c r="B42" s="227" t="s">
         <v>221</v>
       </c>
-      <c r="C38" s="224">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="39" spans="2:64">
-      <c r="B39" s="226"/>
-      <c r="C39" s="224">
+      <c r="C42" s="224">
+        <v>2015</v>
+      </c>
+      <c r="E42" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="F42" s="198"/>
+      <c r="G42" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="H42" s="198"/>
+      <c r="I42" s="231">
+        <f>Steel!H109</f>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="J42" s="198"/>
+      <c r="K42" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="L42" s="198"/>
+      <c r="M42" s="198"/>
+      <c r="N42" s="198"/>
+      <c r="O42" s="198"/>
+      <c r="P42" s="198"/>
+      <c r="Q42" s="198"/>
+      <c r="R42" s="198"/>
+      <c r="S42" s="198"/>
+      <c r="T42" s="198"/>
+      <c r="U42" s="198"/>
+      <c r="V42" s="198"/>
+      <c r="W42" s="198"/>
+      <c r="X42" s="198"/>
+      <c r="Y42" s="198"/>
+      <c r="Z42" s="198"/>
+      <c r="AA42" s="198"/>
+      <c r="AB42" s="198"/>
+      <c r="AC42" s="198"/>
+      <c r="AD42" s="198"/>
+      <c r="AE42" s="198"/>
+      <c r="AF42" s="198"/>
+      <c r="AG42" s="198"/>
+      <c r="AH42" s="198"/>
+      <c r="AI42" s="198"/>
+      <c r="AJ42" s="198"/>
+      <c r="AK42" s="198"/>
+      <c r="AL42" s="198"/>
+      <c r="AM42" s="198"/>
+      <c r="AN42" s="198"/>
+      <c r="AO42" s="198"/>
+      <c r="AP42" s="198"/>
+      <c r="AQ42" s="198"/>
+      <c r="AR42" s="198"/>
+      <c r="AS42" s="198"/>
+      <c r="AT42" s="198"/>
+      <c r="AU42" s="198"/>
+      <c r="AV42" s="198"/>
+      <c r="AW42" s="198"/>
+      <c r="AX42" s="198"/>
+      <c r="AY42" s="198"/>
+      <c r="AZ42" s="198"/>
+      <c r="BA42" s="198"/>
+      <c r="BB42" s="198"/>
+      <c r="BC42" s="198"/>
+      <c r="BD42" s="198"/>
+      <c r="BE42" s="198"/>
+      <c r="BF42" s="198"/>
+      <c r="BG42" s="198"/>
+      <c r="BH42" s="198"/>
+      <c r="BI42" s="198"/>
+      <c r="BJ42" s="198"/>
+      <c r="BK42" s="198"/>
+      <c r="BL42" s="198"/>
+      <c r="BM42" s="198"/>
+    </row>
+    <row r="43" spans="2:65">
+      <c r="B43" s="228"/>
+      <c r="C43" s="224">
         <v>2020</v>
       </c>
-    </row>
-    <row r="40" spans="2:64">
-      <c r="B40" s="226"/>
-      <c r="C40" s="224">
+      <c r="E43" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="F43" s="198"/>
+      <c r="G43" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="H43" s="198"/>
+      <c r="I43" s="231">
+        <f>Steel!H110</f>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="J43" s="198"/>
+      <c r="K43" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="198"/>
+      <c r="P43" s="198"/>
+      <c r="Q43" s="198"/>
+      <c r="R43" s="198"/>
+      <c r="S43" s="198"/>
+      <c r="T43" s="198"/>
+      <c r="U43" s="198"/>
+      <c r="V43" s="198"/>
+      <c r="W43" s="198"/>
+      <c r="X43" s="198"/>
+      <c r="Y43" s="198"/>
+      <c r="Z43" s="198"/>
+      <c r="AA43" s="198"/>
+      <c r="AB43" s="198"/>
+      <c r="AC43" s="198"/>
+      <c r="AD43" s="198"/>
+      <c r="AE43" s="198"/>
+      <c r="AF43" s="198"/>
+      <c r="AG43" s="198"/>
+      <c r="AH43" s="198"/>
+      <c r="AI43" s="198"/>
+      <c r="AJ43" s="198"/>
+      <c r="AK43" s="198"/>
+      <c r="AL43" s="198"/>
+      <c r="AM43" s="198"/>
+      <c r="AN43" s="198"/>
+      <c r="AO43" s="198"/>
+      <c r="AP43" s="198"/>
+      <c r="AQ43" s="198"/>
+      <c r="AR43" s="198"/>
+      <c r="AS43" s="198"/>
+      <c r="AT43" s="198"/>
+      <c r="AU43" s="198"/>
+      <c r="AV43" s="198"/>
+      <c r="AW43" s="198"/>
+      <c r="AX43" s="198"/>
+      <c r="AY43" s="198"/>
+      <c r="AZ43" s="198"/>
+      <c r="BA43" s="198"/>
+      <c r="BB43" s="198"/>
+      <c r="BC43" s="198"/>
+      <c r="BD43" s="198"/>
+      <c r="BE43" s="198"/>
+      <c r="BF43" s="198"/>
+      <c r="BG43" s="198"/>
+      <c r="BH43" s="198"/>
+      <c r="BI43" s="198"/>
+      <c r="BJ43" s="198"/>
+      <c r="BK43" s="198"/>
+      <c r="BL43" s="198"/>
+      <c r="BM43" s="198"/>
+    </row>
+    <row r="44" spans="2:65">
+      <c r="B44" s="228"/>
+      <c r="C44" s="224">
         <v>2030</v>
       </c>
-      <c r="E40" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="41" spans="2:64">
-      <c r="B41" s="226"/>
-      <c r="C41" s="224">
+      <c r="E44" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="F44" s="198"/>
+      <c r="G44" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="H44" s="198"/>
+      <c r="I44" s="231">
+        <f>Steel!H111</f>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="J44" s="198"/>
+      <c r="K44" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="L44" s="198"/>
+      <c r="M44" s="198"/>
+      <c r="N44" s="198"/>
+      <c r="O44" s="198"/>
+      <c r="P44" s="198"/>
+      <c r="Q44" s="198"/>
+      <c r="R44" s="198"/>
+      <c r="S44" s="198"/>
+      <c r="T44" s="198"/>
+      <c r="U44" s="198"/>
+      <c r="V44" s="198"/>
+      <c r="W44" s="198"/>
+      <c r="X44" s="198"/>
+      <c r="Y44" s="198"/>
+      <c r="Z44" s="198"/>
+      <c r="AA44" s="198"/>
+      <c r="AB44" s="198"/>
+      <c r="AC44" s="198"/>
+      <c r="AD44" s="198"/>
+      <c r="AE44" s="198"/>
+      <c r="AF44" s="198"/>
+      <c r="AG44" s="198"/>
+      <c r="AH44" s="198"/>
+      <c r="AI44" s="198"/>
+      <c r="AJ44" s="198"/>
+      <c r="AK44" s="198"/>
+      <c r="AL44" s="198"/>
+      <c r="AM44" s="198"/>
+      <c r="AN44" s="198"/>
+      <c r="AO44" s="198"/>
+      <c r="AP44" s="198"/>
+      <c r="AQ44" s="198"/>
+      <c r="AR44" s="198"/>
+      <c r="AS44" s="198"/>
+      <c r="AT44" s="198"/>
+      <c r="AU44" s="198"/>
+      <c r="AV44" s="198"/>
+      <c r="AW44" s="198"/>
+      <c r="AX44" s="198"/>
+      <c r="AY44" s="198"/>
+      <c r="AZ44" s="198"/>
+      <c r="BA44" s="198"/>
+      <c r="BB44" s="198"/>
+      <c r="BC44" s="198"/>
+      <c r="BD44" s="198"/>
+      <c r="BE44" s="198"/>
+      <c r="BF44" s="198"/>
+      <c r="BG44" s="198"/>
+      <c r="BH44" s="198"/>
+      <c r="BI44" s="198"/>
+      <c r="BJ44" s="198"/>
+      <c r="BK44" s="198"/>
+      <c r="BL44" s="198"/>
+      <c r="BM44" s="198"/>
+    </row>
+    <row r="45" spans="2:65">
+      <c r="B45" s="228"/>
+      <c r="C45" s="224">
         <v>2040</v>
       </c>
-    </row>
-    <row r="42" spans="2:64">
-      <c r="B42" s="226"/>
-      <c r="C42" s="224">
+      <c r="E45" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="F45" s="198"/>
+      <c r="G45" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="H45" s="198"/>
+      <c r="I45" s="231">
+        <f>Steel!H112</f>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="J45" s="198"/>
+      <c r="K45" s="231">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="L45" s="198"/>
+      <c r="M45" s="198"/>
+      <c r="N45" s="198"/>
+      <c r="O45" s="198"/>
+      <c r="P45" s="198"/>
+      <c r="Q45" s="198"/>
+      <c r="R45" s="198"/>
+      <c r="S45" s="198"/>
+      <c r="T45" s="198"/>
+      <c r="U45" s="198"/>
+      <c r="V45" s="198"/>
+      <c r="W45" s="198"/>
+      <c r="X45" s="198"/>
+      <c r="Y45" s="198"/>
+      <c r="Z45" s="198"/>
+      <c r="AA45" s="198"/>
+      <c r="AB45" s="198"/>
+      <c r="AC45" s="198"/>
+      <c r="AD45" s="198"/>
+      <c r="AE45" s="198"/>
+      <c r="AF45" s="198"/>
+      <c r="AG45" s="198"/>
+      <c r="AH45" s="198"/>
+      <c r="AI45" s="198"/>
+      <c r="AJ45" s="198"/>
+      <c r="AK45" s="198"/>
+      <c r="AL45" s="198"/>
+      <c r="AM45" s="198"/>
+      <c r="AN45" s="198"/>
+      <c r="AO45" s="198"/>
+      <c r="AP45" s="198"/>
+      <c r="AQ45" s="198"/>
+      <c r="AR45" s="198"/>
+      <c r="AS45" s="198"/>
+      <c r="AT45" s="198"/>
+      <c r="AU45" s="198"/>
+      <c r="AV45" s="198"/>
+      <c r="AW45" s="198"/>
+      <c r="AX45" s="198"/>
+      <c r="AY45" s="198"/>
+      <c r="AZ45" s="198"/>
+      <c r="BA45" s="198"/>
+      <c r="BB45" s="198"/>
+      <c r="BC45" s="198"/>
+      <c r="BD45" s="198"/>
+      <c r="BE45" s="198"/>
+      <c r="BF45" s="198"/>
+      <c r="BG45" s="198"/>
+      <c r="BH45" s="198"/>
+      <c r="BI45" s="198"/>
+      <c r="BJ45" s="198"/>
+      <c r="BK45" s="198"/>
+      <c r="BL45" s="198"/>
+      <c r="BM45" s="198"/>
+    </row>
+    <row r="46" spans="2:65" ht="15" thickBot="1">
+      <c r="B46" s="229"/>
+      <c r="C46" s="224">
         <v>2050</v>
       </c>
+      <c r="E46" s="232">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="F46" s="198"/>
+      <c r="G46" s="232">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="H46" s="198"/>
+      <c r="I46" s="232">
+        <f>Steel!H113</f>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="J46" s="198"/>
+      <c r="K46" s="232">
+        <v>11.879999999999999</v>
+      </c>
+      <c r="L46" s="198"/>
+      <c r="M46" s="198"/>
+      <c r="N46" s="198"/>
+      <c r="O46" s="198"/>
+      <c r="P46" s="198"/>
+      <c r="Q46" s="198"/>
+      <c r="R46" s="198"/>
+      <c r="S46" s="198"/>
+      <c r="T46" s="198"/>
+      <c r="U46" s="198"/>
+      <c r="V46" s="198"/>
+      <c r="W46" s="198"/>
+      <c r="X46" s="198"/>
+      <c r="Y46" s="198"/>
+      <c r="Z46" s="198"/>
+      <c r="AA46" s="198"/>
+      <c r="AB46" s="198"/>
+      <c r="AC46" s="198"/>
+      <c r="AD46" s="198"/>
+      <c r="AE46" s="198"/>
+      <c r="AF46" s="198"/>
+      <c r="AG46" s="198"/>
+      <c r="AH46" s="198"/>
+      <c r="AI46" s="198"/>
+      <c r="AJ46" s="198"/>
+      <c r="AK46" s="198"/>
+      <c r="AL46" s="198"/>
+      <c r="AM46" s="198"/>
+      <c r="AN46" s="198"/>
+      <c r="AO46" s="198"/>
+      <c r="AP46" s="198"/>
+      <c r="AQ46" s="198"/>
+      <c r="AR46" s="198"/>
+      <c r="AS46" s="198"/>
+      <c r="AT46" s="198"/>
+      <c r="AU46" s="198"/>
+      <c r="AV46" s="198"/>
+      <c r="AW46" s="198"/>
+      <c r="AX46" s="198"/>
+      <c r="AY46" s="198"/>
+      <c r="AZ46" s="198"/>
+      <c r="BA46" s="198"/>
+      <c r="BB46" s="198"/>
+      <c r="BC46" s="198"/>
+      <c r="BD46" s="198"/>
+      <c r="BE46" s="198"/>
+      <c r="BF46" s="198"/>
+      <c r="BG46" s="198"/>
+      <c r="BH46" s="198"/>
+      <c r="BI46" s="198"/>
+      <c r="BJ46" s="198"/>
+      <c r="BK46" s="198"/>
+      <c r="BL46" s="198"/>
+      <c r="BM46" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B42:B46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44378,7 +45016,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:AL110"/>
+  <dimension ref="B2:AL113"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="I94" sqref="I94"/>
@@ -47226,59 +47864,120 @@
     </row>
     <row r="106" spans="4:35">
       <c r="D106" s="164"/>
-      <c r="F106" s="14" t="s">
-        <v>248</v>
-      </c>
+      <c r="E106" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J106" s="174"/>
+      <c r="K106" s="174"/>
       <c r="L106" s="174"/>
       <c r="M106" s="174"/>
-      <c r="N106" s="174"/>
+      <c r="N106" s="173"/>
       <c r="O106" s="174"/>
-      <c r="P106" s="173"/>
+      <c r="P106" s="174"/>
       <c r="Q106" s="174"/>
-      <c r="R106" s="174"/>
-      <c r="S106" s="174"/>
     </row>
     <row r="107" spans="4:35">
+      <c r="E107" s="168"/>
+      <c r="F107" s="169"/>
+      <c r="G107" s="169"/>
+      <c r="H107" s="170" t="s">
+        <v>174</v>
+      </c>
+      <c r="J107" s="174"/>
+      <c r="K107" s="174"/>
       <c r="L107" s="174"/>
-      <c r="M107" s="174"/>
+      <c r="M107" s="194"/>
       <c r="N107" s="174"/>
-      <c r="O107" s="194"/>
+      <c r="O107" s="174"/>
       <c r="P107" s="174"/>
       <c r="Q107" s="174"/>
-      <c r="R107" s="174"/>
-      <c r="S107" s="174"/>
     </row>
     <row r="108" spans="4:35">
+      <c r="E108" s="168" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" s="169"/>
+      <c r="G108" s="169"/>
+      <c r="H108" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J108" s="174"/>
+      <c r="K108" s="174"/>
       <c r="L108" s="174"/>
       <c r="M108" s="174"/>
       <c r="N108" s="174"/>
       <c r="O108" s="174"/>
       <c r="P108" s="174"/>
       <c r="Q108" s="174"/>
-      <c r="R108" s="174"/>
-      <c r="S108" s="174"/>
     </row>
     <row r="109" spans="4:35">
-      <c r="H109"/>
+      <c r="E109" s="7">
+        <v>2010</v>
+      </c>
+      <c r="F109" s="199"/>
+      <c r="H109" s="22">
+        <f>L100</f>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="J109" s="174"/>
+      <c r="K109" s="174"/>
       <c r="L109" s="174"/>
       <c r="M109" s="174"/>
       <c r="N109" s="174"/>
       <c r="O109" s="174"/>
       <c r="P109" s="174"/>
       <c r="Q109" s="174"/>
-      <c r="R109" s="174"/>
-      <c r="S109" s="174"/>
     </row>
     <row r="110" spans="4:35">
-      <c r="H110"/>
+      <c r="E110" s="7">
+        <v>2020</v>
+      </c>
+      <c r="F110" s="199"/>
+      <c r="H110" s="22">
+        <f>H109</f>
+        <v>11.879999999999999</v>
+      </c>
+      <c r="J110" s="174"/>
+      <c r="K110" s="174"/>
       <c r="L110" s="174"/>
       <c r="M110" s="174"/>
       <c r="N110" s="174"/>
       <c r="O110" s="174"/>
       <c r="P110" s="174"/>
       <c r="Q110" s="174"/>
-      <c r="R110" s="174"/>
-      <c r="S110" s="174"/>
+    </row>
+    <row r="111" spans="4:35">
+      <c r="E111" s="7">
+        <v>2030</v>
+      </c>
+      <c r="F111" s="199"/>
+      <c r="H111" s="22">
+        <f>H110</f>
+        <v>11.879999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="4:35">
+      <c r="E112" s="7">
+        <v>2040</v>
+      </c>
+      <c r="F112" s="199"/>
+      <c r="H112" s="22">
+        <f>H111</f>
+        <v>11.879999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="5:8">
+      <c r="E113" s="7">
+        <v>2050</v>
+      </c>
+      <c r="F113" s="199"/>
+      <c r="H113" s="22">
+        <f>H112</f>
+        <v>11.879999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -47299,12 +47998,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000E3FD64CA06BB845865CD9E87FADFEF6" ma:contentTypeVersion="2" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="b4c9d469104b9a04469e9d3657b22a63">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fadc4ee-c4d5-48c2-830b-209e5825c010" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d7e9970252a611f9d1bb4b39bf7de9c" ns2:_="">
     <xsd:import namespace="0fadc4ee-c4d5-48c2-830b-209e5825c010"/>
@@ -47436,6 +48129,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B143AC4D-D6FD-4700-8850-AE86F41C8079}">
   <ds:schemaRefs>
@@ -47445,15 +48144,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58E0EC85-643B-45E2-B314-C482ABB137E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28E9511B-697A-4946-BF74-D4D73374CAE0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -47469,4 +48159,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58E0EC85-643B-45E2-B314-C482ABB137E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>